--- a/biology/Botanique/Geniostoma/Geniostoma.xlsx
+++ b/biology/Botanique/Geniostoma/Geniostoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geniostoma est un genre botanique qui regroupe environ 50 espèces originaires des régions tropicales à tempérées d'Asie et d'Océanie, de la famille des Loganiaceae. 
 Ce sont des arbustes ou de petits arbres à feuilles opposées. Les fleurs sont hermaphrodites mais ne peuvent pas s'autoféconder. Le fruit est une capsule globuleuse ou ovoïde contenant de nombreuses graines.
@@ -512,7 +524,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Asie de l'Est, Asie du Sud-Est, Australie, Nouvelle-Zélande, Nouvelle-Calédonie (10 espèces dont 9 endémiques), Mascareignes...
 </t>
@@ -543,7 +557,9 @@
           <t>Liste d'espèces (incomplète)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Geniostoma angustifolium Bouton ex DC.
 Geniostoma archboldianum Merr. &amp; L.M. Perry
